--- a/in.xlsx
+++ b/in.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\程序\2023Q3\excel-to-sqltest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537FFA6D-311D-4A2A-95BC-560A38BD6B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91FEA0E-D08F-42F1-98DA-A4C21A1E8803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="28557" windowHeight="17203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,38 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -381,56 +361,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:E4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>17</v>
+      <c r="B3">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>19</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>78</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>18</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
